--- a/df.xlsx
+++ b/df.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sudspg\su_dspg_ds\ml03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157126A1-EFDC-4DF9-BCCF-8A295AF44F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B39A23-EEE4-4F49-A461-F3BE44F6AF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="1800" windowWidth="31200" windowHeight="17985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4635" yWindow="1800" windowWidth="31200" windowHeight="17985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="df_sample" sheetId="1" r:id="rId1"/>
-    <sheet name="c1" sheetId="2" r:id="rId2"/>
-    <sheet name="c2" sheetId="3" r:id="rId3"/>
-    <sheet name="m1" sheetId="4" r:id="rId4"/>
-    <sheet name="m2" sheetId="5" r:id="rId5"/>
-    <sheet name="j1" sheetId="6" r:id="rId6"/>
-    <sheet name="j2" sheetId="7" r:id="rId7"/>
-    <sheet name="n" sheetId="8" r:id="rId8"/>
+    <sheet name="saitama_temp_202208" sheetId="9" r:id="rId2"/>
+    <sheet name="c1" sheetId="2" r:id="rId3"/>
+    <sheet name="c2" sheetId="3" r:id="rId4"/>
+    <sheet name="m1" sheetId="4" r:id="rId5"/>
+    <sheet name="m2" sheetId="5" r:id="rId6"/>
+    <sheet name="j1" sheetId="6" r:id="rId7"/>
+    <sheet name="j2" sheetId="7" r:id="rId8"/>
+    <sheet name="n" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>price</t>
   </si>
@@ -66,6 +67,21 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>年月日</t>
+  </si>
+  <si>
+    <t>平均気温</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最高気温</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最低気温</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -138,10 +154,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -424,7 +446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -495,6 +517,474 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED1ED922-C861-42DE-9315-06109B201515}">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4">
+        <v>44774</v>
+      </c>
+      <c r="B2" s="3">
+        <v>31.3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>37.4</v>
+      </c>
+      <c r="D2" s="3">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4">
+        <v>44775</v>
+      </c>
+      <c r="B3" s="3">
+        <v>32.1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="D3" s="3">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4">
+        <v>44776</v>
+      </c>
+      <c r="B4" s="3">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="C4" s="3">
+        <v>38</v>
+      </c>
+      <c r="D4" s="3">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4">
+        <v>44777</v>
+      </c>
+      <c r="B5" s="3">
+        <v>24.8</v>
+      </c>
+      <c r="C5" s="3">
+        <v>29.9</v>
+      </c>
+      <c r="D5" s="3">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4">
+        <v>44778</v>
+      </c>
+      <c r="B6" s="3">
+        <v>24.1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>27.3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4">
+        <v>44779</v>
+      </c>
+      <c r="B7" s="3">
+        <v>25.5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>29.8</v>
+      </c>
+      <c r="D7" s="3">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4">
+        <v>44780</v>
+      </c>
+      <c r="B8" s="3">
+        <v>27.4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="D8" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4">
+        <v>44781</v>
+      </c>
+      <c r="B9" s="3">
+        <v>30.3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>35.4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4">
+        <v>44782</v>
+      </c>
+      <c r="B10" s="3">
+        <v>31.6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="D10" s="3">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4">
+        <v>44783</v>
+      </c>
+      <c r="B11" s="3">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3">
+        <v>35.9</v>
+      </c>
+      <c r="D11" s="3">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4">
+        <v>44784</v>
+      </c>
+      <c r="B12" s="3">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="D12" s="3">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4">
+        <v>44785</v>
+      </c>
+      <c r="B13" s="3">
+        <v>28.8</v>
+      </c>
+      <c r="C13" s="3">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="D13" s="3">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4">
+        <v>44786</v>
+      </c>
+      <c r="B14" s="3">
+        <v>25.7</v>
+      </c>
+      <c r="C14" s="3">
+        <v>29.2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4">
+        <v>44787</v>
+      </c>
+      <c r="B15" s="3">
+        <v>27.8</v>
+      </c>
+      <c r="C15" s="3">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="D15" s="3">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4">
+        <v>44788</v>
+      </c>
+      <c r="B16" s="3">
+        <v>29.6</v>
+      </c>
+      <c r="C16" s="3">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="D16" s="3">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4">
+        <v>44789</v>
+      </c>
+      <c r="B17" s="3">
+        <v>30.2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="D17" s="3">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4">
+        <v>44790</v>
+      </c>
+      <c r="B18" s="3">
+        <v>27.3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>31</v>
+      </c>
+      <c r="D18" s="3">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4">
+        <v>44791</v>
+      </c>
+      <c r="B19" s="3">
+        <v>25.2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>29.4</v>
+      </c>
+      <c r="D19" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4">
+        <v>44792</v>
+      </c>
+      <c r="B20" s="3">
+        <v>27.4</v>
+      </c>
+      <c r="C20" s="3">
+        <v>32.9</v>
+      </c>
+      <c r="D20" s="3">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4">
+        <v>44793</v>
+      </c>
+      <c r="B21" s="3">
+        <v>25.6</v>
+      </c>
+      <c r="C21" s="3">
+        <v>29.5</v>
+      </c>
+      <c r="D21" s="3">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="4">
+        <v>44794</v>
+      </c>
+      <c r="B22" s="3">
+        <v>26</v>
+      </c>
+      <c r="C22" s="3">
+        <v>29</v>
+      </c>
+      <c r="D22" s="3">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4">
+        <v>44795</v>
+      </c>
+      <c r="B23" s="3">
+        <v>26.1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>30.3</v>
+      </c>
+      <c r="D23" s="3">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="4">
+        <v>44796</v>
+      </c>
+      <c r="B24" s="3">
+        <v>29.1</v>
+      </c>
+      <c r="C24" s="3">
+        <v>34.9</v>
+      </c>
+      <c r="D24" s="3">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="4">
+        <v>44797</v>
+      </c>
+      <c r="B25" s="3">
+        <v>27.9</v>
+      </c>
+      <c r="C25" s="3">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="D25" s="3">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="4">
+        <v>44798</v>
+      </c>
+      <c r="B26" s="3">
+        <v>25.9</v>
+      </c>
+      <c r="C26" s="3">
+        <v>28.5</v>
+      </c>
+      <c r="D26" s="3">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="4">
+        <v>44799</v>
+      </c>
+      <c r="B27" s="3">
+        <v>26.7</v>
+      </c>
+      <c r="C27" s="3">
+        <v>30.9</v>
+      </c>
+      <c r="D27" s="3">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="4">
+        <v>44800</v>
+      </c>
+      <c r="B28" s="3">
+        <v>28.4</v>
+      </c>
+      <c r="C28" s="3">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="D28" s="3">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="4">
+        <v>44801</v>
+      </c>
+      <c r="B29" s="3">
+        <v>23.3</v>
+      </c>
+      <c r="C29" s="3">
+        <v>26.1</v>
+      </c>
+      <c r="D29" s="3">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="4">
+        <v>44802</v>
+      </c>
+      <c r="B30" s="3">
+        <v>23.1</v>
+      </c>
+      <c r="C30" s="3">
+        <v>27.4</v>
+      </c>
+      <c r="D30" s="3">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="4">
+        <v>44803</v>
+      </c>
+      <c r="B31" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="C31" s="3">
+        <v>26.6</v>
+      </c>
+      <c r="D31" s="3">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="4">
+        <v>44804</v>
+      </c>
+      <c r="B32" s="3">
+        <v>26.6</v>
+      </c>
+      <c r="C32" s="3">
+        <v>33.5</v>
+      </c>
+      <c r="D32" s="3">
+        <v>22.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -543,7 +1033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -591,7 +1081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -651,7 +1141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -711,7 +1201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -771,7 +1261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -831,7 +1321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
